--- a/eDNA 12S metab/example_output/taxonomic_assignments/Three_DB_comparison_taxonomic_ID.xlsx
+++ b/eDNA 12S metab/example_output/taxonomic_assignments/Three_DB_comparison_taxonomic_ID.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>312/422</t>
+          <t>316/422</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>315/422</t>
+          <t>312/422</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>341/422</t>
+          <t>343/422</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>288/422</t>
+          <t>289/422</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>270/422</t>
+          <t>269/422</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>137/422</t>
+          <t>138/422</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>368/422</t>
+          <t>369/422</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>386/422</t>
+          <t>388/422</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>177/422</t>
+          <t>178/422</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>305/422</t>
+          <t>304/422</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>395/422</t>
+          <t>393/422</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>224/422</t>
+          <t>225/422</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>360/422</t>
+          <t>359/422</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>308/422</t>
+          <t>310/422</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>409/422</t>
+          <t>411/422</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>300/422</t>
+          <t>303/422</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>295/422</t>
+          <t>296/422</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>385/422</t>
+          <t>384/422</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>223/422</t>
+          <t>222/422</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>344/422</t>
+          <t>342/422</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>285/422</t>
+          <t>282/422</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>138/422</t>
+          <t>137/422</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>247/422</t>
+          <t>248/422</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>387/422</t>
+          <t>386/422</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>340/422</t>
+          <t>337/422</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>363/422</t>
+          <t>364/422</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>365/422</t>
+          <t>366/422</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>369/422</t>
+          <t>367/422</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>381/422</t>
+          <t>380/422</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/eDNA 12S metab/example_output/taxonomic_assignments/Three_DB_comparison_taxonomic_ID.xlsx
+++ b/eDNA 12S metab/example_output/taxonomic_assignments/Three_DB_comparison_taxonomic_ID.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>316/422</t>
+          <t>313/422</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>415/422</t>
+          <t>412/422</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>143/422</t>
+          <t>144/422</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>312/422</t>
+          <t>315/422</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>58/422</t>
+          <t>57/422</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>269/422</t>
+          <t>270/422</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>388/422</t>
+          <t>386/422</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>304/422</t>
+          <t>307/422</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>393/422</t>
+          <t>396/422</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>225/422</t>
+          <t>224/422</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>310/422</t>
+          <t>308/422</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>411/422</t>
+          <t>406/422</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>303/422</t>
+          <t>302/422</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>296/422</t>
+          <t>297/422</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>174/422</t>
+          <t>173/422</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>342/422</t>
+          <t>344/422</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>173/422</t>
+          <t>174/422</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>282/422</t>
+          <t>286/422</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>248/422</t>
+          <t>250/422</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>386/422</t>
+          <t>388/422</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>337/422</t>
+          <t>340/422</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>364/422</t>
+          <t>365/422</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>367/422</t>
+          <t>368/422</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>380/422</t>
+          <t>379/422</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
